--- a/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>MAXD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -996,25 +1015,28 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,13 +1097,14 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1087,37 +1113,40 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1131,37 +1160,40 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1220,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1267,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6900</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,10 +1332,10 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>1100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E23" s="3">
         <v>9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E26" s="3">
         <v>9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E27" s="3">
         <v>9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1784,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F32" s="3">
         <v>3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E33" s="3">
         <v>9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E35" s="3">
         <v>9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2003,16 +2089,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2157,8 +2255,8 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2167,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2179,16 +2277,19 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2211,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
@@ -2220,19 +2321,22 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2289,8 +2396,8 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2305,22 +2412,25 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,10 +2471,13 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2563,28 +2688,31 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2637,10 +2767,10 @@
         <v>700</v>
       </c>
       <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -2649,10 +2779,10 @@
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,125 +2811,134 @@
         <v>6500</v>
       </c>
       <c r="G58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H58" s="3">
         <v>6300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>5600</v>
       </c>
       <c r="J58" s="3">
         <v>5600</v>
       </c>
       <c r="K58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>10900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>18100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>18100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-81500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-88400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-98300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-94800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-93600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-86500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-86200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-89000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-81400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-78600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-77800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-74400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-74500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-72700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-18100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-28000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-24500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-23300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-16100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-16000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-19700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-13400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-12100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-10100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-10600</v>
       </c>
       <c r="P76" s="3">
         <v>-10600</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-10600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E81" s="3">
         <v>9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3904,40 +4120,43 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3986,20 +4206,23 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4336,19 +4581,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
@@ -4357,19 +4602,22 @@
         <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4445,15 +4696,18 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>MAXD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1018,25 +1058,31 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1110,43 +1164,49 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1157,43 +1217,49 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,101 +1288,113 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G20" s="3">
         <v>10200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-6600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G21" s="3">
         <v>10000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6900</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1335,13 +1415,13 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>1100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>7000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>7000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1924,105 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-10200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>6600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2092,16 +2266,22 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2258,20 +2456,20 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2280,16 +2478,22 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2315,28 +2519,34 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2399,11 +2615,11 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2415,22 +2631,28 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,10 +2696,16 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2691,28 +2943,34 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,16 +3009,18 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
@@ -2770,25 +3032,25 @@
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -2796,13 +3058,19 @@
       <c r="Q57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
         <v>6500</v>
@@ -2814,131 +3082,149 @@
         <v>6500</v>
       </c>
       <c r="H58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J58" s="3">
         <v>6300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>17300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>16300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>28000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>24500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>23300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>19800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>10900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>28000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>24500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>12300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-82300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-81500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-88400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-98300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-94800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-93600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-86500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-86200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-89000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-81400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-78600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-77800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-74400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-74500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-72700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-11200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-18100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-28000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-24500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-23300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-16100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-16000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-19700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-13400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-11800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-12100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-10100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,16 +4222,18 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4123,40 +4557,46 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-700</v>
       </c>
       <c r="O89" s="3">
         <v>-400</v>
       </c>
       <c r="P89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4209,20 +4651,26 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4584,40 +5076,46 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>300</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
+        <v>300</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4699,15 +5203,21 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>MAXD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,8 +1059,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1064,25 +1084,28 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,13 +1188,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1176,37 +1203,40 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,13 +1244,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1229,37 +1259,40 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,49 +1325,52 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>7300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,50 +1380,53 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>7200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6900</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,7 +1437,7 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1421,10 +1461,10 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>1100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1450,49 +1493,52 @@
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>7000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1609,49 +1661,52 @@
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1662,49 +1717,52 @@
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,49 +1997,52 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-7300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1980,49 +2053,52 @@
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2086,107 +2165,113 @@
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2272,16 +2359,19 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,28 +2535,31 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2472,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2484,16 +2583,19 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2525,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
@@ -2534,19 +2636,22 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,28 +2703,31 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2637,22 +2745,25 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,10 +2813,13 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2949,28 +3075,31 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,7 +3154,7 @@
         <v>800</v>
       </c>
       <c r="F57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
@@ -3038,10 +3169,10 @@
         <v>700</v>
       </c>
       <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -3050,10 +3181,10 @@
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3207,7 @@
         <v>6600</v>
       </c>
       <c r="E58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="F58" s="3">
         <v>6500</v>
@@ -3088,143 +3222,152 @@
         <v>6500</v>
       </c>
       <c r="J58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K58" s="3">
         <v>6300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>5600</v>
       </c>
       <c r="M58" s="3">
         <v>5600</v>
       </c>
       <c r="N58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O58" s="3">
         <v>5500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E60" s="3">
         <v>11900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-82300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-81900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-81500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-88400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-98300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-94800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-93600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-86500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-86200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-89000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-81400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-78600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-77800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-74400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-74500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-72700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-18100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-28000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-24500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-23300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-19700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-13400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-11800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-12100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-10100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-10600</v>
       </c>
       <c r="S76" s="3">
         <v>-10600</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-10600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4162,49 +4357,52 @@
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,8 +4434,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4563,40 +4780,43 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4657,20 +4878,23 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5082,19 +5328,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>300</v>
       </c>
       <c r="N100" s="3">
         <v>300</v>
@@ -5103,19 +5349,22 @@
         <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5209,15 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>MAXD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,116 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,11 +1101,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1087,25 +1126,31 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1244,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1200,99 +1253,111 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1400</v>
       </c>
       <c r="T18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1378,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3">
-        <v>7300</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>10200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,50 +1456,56 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>10000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6900</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-7400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,10 +1519,10 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1464,13 +1543,13 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1481,13 +1560,19 @@
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
@@ -1496,49 +1581,55 @@
         <v>-400</v>
       </c>
       <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>7000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1746,19 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
@@ -1664,54 +1767,60 @@
         <v>-400</v>
       </c>
       <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
@@ -1720,49 +1829,55 @@
         <v>-400</v>
       </c>
       <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,69 +2118,81 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7300</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>-10200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
@@ -2056,49 +2201,55 @@
         <v>-400</v>
       </c>
       <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2304,19 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
@@ -2168,110 +2325,122 @@
         <v>-400</v>
       </c>
       <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2485,15 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2362,16 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2574,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2586,21 +2783,27 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2630,28 +2833,34 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2748,22 +2963,28 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
       <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,10 +3037,16 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3287,19 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3078,28 +3329,34 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3157,10 +3418,10 @@
         <v>800</v>
       </c>
       <c r="G57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
@@ -3172,25 +3433,25 @@
         <v>700</v>
       </c>
       <c r="L57" s="3">
+        <v>700</v>
+      </c>
+      <c r="M57" s="3">
+        <v>700</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3198,22 +3459,28 @@
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="E58" s="3">
         <v>6600</v>
       </c>
       <c r="F58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="H58" s="3">
         <v>6500</v>
@@ -3225,149 +3492,167 @@
         <v>6500</v>
       </c>
       <c r="K58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="M58" s="3">
         <v>6300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>20700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>16300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>13700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>6400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>28000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>24500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>23300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>16200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>16100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>19800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>12000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>12300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>10400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>10900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F66" s="3">
         <v>12300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>28000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>24500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>23300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-82600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-82300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-81900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-81500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-88400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-98300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-94800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-93600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-86500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-86200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-89000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-81400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-78600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-77800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-74400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-74500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-72700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-11600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-11200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-18100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-28000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-24500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-23300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-16100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-16000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-19700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-13400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-12100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-10100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-10600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4661,86 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
@@ -4360,49 +4749,55 @@
         <v>-400</v>
       </c>
       <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,19 +4818,21 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +5186,19 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4783,40 +5216,46 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-700</v>
       </c>
       <c r="R89" s="3">
         <v>-400</v>
       </c>
       <c r="S89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4881,20 +5322,26 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5331,40 +5822,46 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
+        <v>300</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,13 +5916,19 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5464,15 +5967,21 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>MAXD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,116 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -779,8 +787,8 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -815,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1107,11 +1147,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1132,25 +1172,31 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1295,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1250,7 +1304,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1259,60 +1313,66 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1400</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1320,44 +1380,50 @@
       <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1400</v>
       </c>
       <c r="V18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,16 +1446,18 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1404,46 +1472,52 @@
         <v>4</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>10200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-6600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,47 +1539,53 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-6900</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,10 +1605,10 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1549,13 +1629,13 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>1100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1566,19 +1646,25 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-400</v>
@@ -1587,49 +1673,55 @@
         <v>-400</v>
       </c>
       <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3400</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,19 +1850,25 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-400</v>
@@ -1773,60 +1877,66 @@
         <v>-400</v>
       </c>
       <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3400</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
@@ -1835,49 +1945,55 @@
         <v>-400</v>
       </c>
       <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3400</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,16 +2258,22 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2148,57 +2288,63 @@
         <v>4</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-10200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>6600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
@@ -2207,49 +2353,55 @@
         <v>-400</v>
       </c>
       <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,19 +2462,25 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
@@ -2331,116 +2489,128 @@
         <v>-400</v>
       </c>
       <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,20 +2659,22 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2541,16 +2715,22 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,31 +2927,37 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2777,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2789,28 +2987,34 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -2839,28 +3043,34 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2969,22 +3185,28 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
       <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3043,10 +3265,16 @@
         <v>0</v>
       </c>
       <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,20 +3539,26 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -3335,28 +3587,34 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3424,10 +3686,10 @@
         <v>800</v>
       </c>
       <c r="I57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
@@ -3439,25 +3701,25 @@
         <v>700</v>
       </c>
       <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
+        <v>700</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -3465,8 +3727,14 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,19 +3742,19 @@
         <v>6300</v>
       </c>
       <c r="E58" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="F58" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="G58" s="3">
         <v>6600</v>
       </c>
       <c r="H58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="I58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="J58" s="3">
         <v>6500</v>
@@ -3498,161 +3766,179 @@
         <v>6500</v>
       </c>
       <c r="M58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="N58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="O58" s="3">
         <v>6300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>17300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>16300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>7600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>6500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>7100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>6400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F60" s="3">
         <v>12800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>28000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>24500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>16200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>16100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>13500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>12300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>10400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>10900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F66" s="3">
         <v>12800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>28000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>24500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>23300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>13500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>12000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>12300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-83100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-83000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-82600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-82300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-81900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-81500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-88400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-98300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-94800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-93600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-86500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-86200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-89000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-81400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-78600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-77800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-74400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-74500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-72700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-12700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-12300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-11600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-11200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-18100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-28000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-24500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-23300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-16100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-16000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-13400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-11800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-12100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-10100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-10600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-10600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,86 +5045,98 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
@@ -4755,49 +5145,55 @@
         <v>-400</v>
       </c>
       <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,20 +5620,26 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -5222,40 +5656,46 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-700</v>
       </c>
       <c r="T89" s="3">
         <v>-400</v>
       </c>
       <c r="U89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5328,20 +5770,26 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5828,40 +6320,46 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>300</v>
       </c>
       <c r="R100" s="3">
         <v>300</v>
       </c>
       <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
+        <v>300</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,20 +6420,26 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5973,15 +6477,21 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>MAXD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,25 +776,25 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1153,8 +1172,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1178,25 +1197,28 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-600</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,10 +1321,10 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1310,13 +1336,13 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1325,37 +1351,40 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,28 +1392,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1393,37 +1422,40 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1462,62 +1495,65 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>10200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,47 +1581,50 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>10000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6900</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1650,7 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1635,10 +1674,10 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>1100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1652,22 +1691,25 @@
       <c r="X22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
@@ -1679,49 +1721,52 @@
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3400</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,22 +1904,25 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
@@ -1883,63 +1934,66 @@
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3400</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
@@ -1951,49 +2005,52 @@
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3400</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2278,76 +2347,79 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-10200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
@@ -2359,49 +2431,52 @@
         <v>-400</v>
       </c>
       <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3400</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,22 +2543,25 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
@@ -2495,122 +2573,128 @@
         <v>-400</v>
       </c>
       <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3400</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,23 +2746,24 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2721,16 +2807,19 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,19 +3028,22 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2959,8 +3057,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2981,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2993,31 +3091,34 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -3049,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -3058,19 +3159,22 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3191,22 +3298,25 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3271,10 +3381,13 @@
         <v>0</v>
       </c>
       <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3557,11 +3682,11 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3593,28 +3718,31 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
       <c r="V54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,13 +3794,14 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
@@ -3692,7 +3822,7 @@
         <v>800</v>
       </c>
       <c r="K57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
@@ -3707,10 +3837,10 @@
         <v>700</v>
       </c>
       <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -3719,10 +3849,10 @@
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,7 +3881,7 @@
         <v>6300</v>
       </c>
       <c r="G58" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="H58" s="3">
         <v>6600</v>
@@ -3757,7 +3890,7 @@
         <v>6600</v>
       </c>
       <c r="J58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="K58" s="3">
         <v>6500</v>
@@ -3772,173 +3905,182 @@
         <v>6500</v>
       </c>
       <c r="O58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="P58" s="3">
         <v>6300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>5600</v>
       </c>
       <c r="R58" s="3">
         <v>5600</v>
       </c>
       <c r="S58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T58" s="3">
         <v>5500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E60" s="3">
         <v>13400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E66" s="3">
         <v>13400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-83600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-82600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-82300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-81900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-81500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-88400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-98300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-94800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-93600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-86500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-86200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-89000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-81400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-78600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-77800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-74400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-74500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-72700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-13400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-13000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-12500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-28000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-24500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-23300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-16000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-19700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-13400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-11800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-12100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-10100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-10600</v>
       </c>
       <c r="X76" s="3">
         <v>-10600</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-10600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,95 +5239,101 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>
@@ -5151,49 +5345,52 @@
         <v>-400</v>
       </c>
       <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3400</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,14 +5851,14 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -5662,40 +5878,43 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
       </c>
       <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-300</v>
       </c>
       <c r="X89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5776,20 +5996,23 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,11 +6544,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6326,19 +6571,19 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>300</v>
       </c>
       <c r="S100" s="3">
         <v>300</v>
@@ -6347,19 +6592,22 @@
         <v>300</v>
       </c>
       <c r="U100" s="3">
+        <v>300</v>
+      </c>
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,14 +6686,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6483,15 +6734,18 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>MAXD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,37 +1163,40 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1200,25 +1220,28 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-600</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,10 +1351,10 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1339,13 +1366,13 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1354,37 +1381,40 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1395,28 +1425,28 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1425,37 +1455,40 @@
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1498,62 +1532,65 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>10200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,47 +1621,50 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>10000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +1693,7 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1677,10 +1717,10 @@
         <v>200</v>
       </c>
       <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
         <v>1100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1703,16 +1746,16 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
@@ -1724,49 +1767,52 @@
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3400</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1916,16 +1968,16 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
@@ -1937,49 +1989,52 @@
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>7000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3400</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1987,16 +2042,16 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
@@ -2008,49 +2063,52 @@
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3400</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2350,62 +2420,65 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-10200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2413,16 +2486,16 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
@@ -2434,49 +2507,52 @@
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3400</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2555,16 +2634,16 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
@@ -2576,125 +2655,131 @@
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3400</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,26 +2833,27 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2810,16 +2897,19 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3042,11 +3141,11 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -3060,8 +3159,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3082,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3094,34 +3193,37 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
-      </c>
-      <c r="X45" s="3">
-        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -3153,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
@@ -3162,19 +3264,22 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3301,22 +3409,25 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3384,10 +3495,13 @@
         <v>0</v>
       </c>
       <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3685,11 +3811,11 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3721,28 +3847,31 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
       <c r="W54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
       </c>
       <c r="Y54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,7 +3935,7 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
@@ -3825,7 +3956,7 @@
         <v>800</v>
       </c>
       <c r="L57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
@@ -3840,10 +3971,10 @@
         <v>700</v>
       </c>
       <c r="Q57" s="3">
+        <v>700</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -3852,10 +3983,10 @@
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3884,7 +4018,7 @@
         <v>6300</v>
       </c>
       <c r="H58" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="I58" s="3">
         <v>6600</v>
@@ -3893,7 +4027,7 @@
         <v>6600</v>
       </c>
       <c r="K58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="L58" s="3">
         <v>6500</v>
@@ -3908,179 +4042,188 @@
         <v>6500</v>
       </c>
       <c r="P58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>6300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>5600</v>
       </c>
       <c r="S58" s="3">
         <v>5600</v>
       </c>
       <c r="T58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U58" s="3">
         <v>5500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E60" s="3">
         <v>13800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E66" s="3">
         <v>13800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-84000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-82600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-82300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-81900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-81500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-88400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-98300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-94800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-93600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-86500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-86200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-89000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-81400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-78600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-77800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-74400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-74500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-72700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-13800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-13400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-13000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-12500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-28000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-24500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-16100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-16000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-19700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-13400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-11800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-12100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-10100</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-10600</v>
       </c>
       <c r="Y76" s="3">
         <v>-10600</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-10600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5327,16 +5522,16 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
@@ -5348,49 +5543,52 @@
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3400</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5854,14 +6071,14 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -5881,40 +6098,43 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-300</v>
       </c>
       <c r="T89" s="3">
         <v>-300</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-300</v>
       </c>
       <c r="Y89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5999,20 +6220,23 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6547,11 +6793,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6574,19 +6820,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
-      </c>
-      <c r="S100" s="3">
-        <v>300</v>
       </c>
       <c r="T100" s="3">
         <v>300</v>
@@ -6595,19 +6841,22 @@
         <v>300</v>
       </c>
       <c r="V100" s="3">
+        <v>300</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6689,14 +6941,14 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6737,15 +6989,18 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>-100</v>
       </c>
       <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAXD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>MAXD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,25 +790,25 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1192,14 +1212,14 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1223,25 +1243,28 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-600</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1354,10 +1381,10 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1369,13 +1396,13 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1384,37 +1411,40 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1428,28 +1458,28 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1458,37 +1488,40 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1535,62 +1569,65 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>10200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,47 +1661,50 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>10000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6900</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>3000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1696,7 +1736,7 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1720,10 +1760,10 @@
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
         <v>1100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
@@ -1737,28 +1777,31 @@
       <c r="Z22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
@@ -1770,49 +1813,52 @@
         <v>-400</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3400</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,28 +2008,31 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
@@ -1992,69 +2044,72 @@
         <v>-400</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3400</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
@@ -2066,49 +2121,52 @@
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3400</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2423,82 +2493,85 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-10200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
@@ -2510,49 +2583,52 @@
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3400</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,28 +2701,31 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
@@ -2658,128 +2737,134 @@
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3400</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,29 +2920,30 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2900,16 +2987,19 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3144,11 +3243,11 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -3162,8 +3261,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3184,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3196,37 +3295,40 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -3258,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
@@ -3267,19 +3369,22 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3412,22 +3520,25 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3498,10 +3609,13 @@
         <v>0</v>
       </c>
       <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3814,11 +3940,11 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -3850,28 +3976,31 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
       </c>
       <c r="X54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
       </c>
       <c r="Z54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA54" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3938,7 +4069,7 @@
         <v>900</v>
       </c>
       <c r="F57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
@@ -3959,7 +4090,7 @@
         <v>800</v>
       </c>
       <c r="M57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
@@ -3974,10 +4105,10 @@
         <v>700</v>
       </c>
       <c r="R57" s="3">
+        <v>700</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
@@ -3986,10 +4117,10 @@
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
@@ -4000,13 +4131,16 @@
       <c r="Z57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="E58" s="3">
         <v>6300</v>
@@ -4021,7 +4155,7 @@
         <v>6300</v>
       </c>
       <c r="I58" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="J58" s="3">
         <v>6600</v>
@@ -4030,7 +4164,7 @@
         <v>6600</v>
       </c>
       <c r="L58" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="M58" s="3">
         <v>6500</v>
@@ -4045,185 +4179,194 @@
         <v>6500</v>
       </c>
       <c r="Q58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="R58" s="3">
         <v>6300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>5600</v>
       </c>
       <c r="T58" s="3">
         <v>5600</v>
       </c>
       <c r="U58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V58" s="3">
         <v>5500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E59" s="3">
         <v>6900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E60" s="3">
         <v>14100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>10900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E66" s="3">
         <v>14100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>28000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-84400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-84000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-83000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-82600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-82300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-81900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-81500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-88400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-98300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-94800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-93600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-86500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-86200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-89000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-81400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-78600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-77800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-74400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-74500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-72700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-14100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-13800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-13400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-13000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-11600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-11200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-28000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-23300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-16100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-16000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-19700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-13400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-11800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-12100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-10100</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-10600</v>
       </c>
       <c r="Z76" s="3">
         <v>-10600</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-10600</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,107 +5623,113 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
@@ -5546,49 +5741,52 @@
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3400</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6074,14 +6291,14 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -6101,40 +6318,43 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-300</v>
       </c>
       <c r="U89" s="3">
         <v>-300</v>
       </c>
       <c r="V89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-300</v>
       </c>
       <c r="Z89" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6223,20 +6444,23 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6796,11 +7042,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6823,19 +7069,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
-      </c>
-      <c r="T100" s="3">
-        <v>300</v>
       </c>
       <c r="U100" s="3">
         <v>300</v>
@@ -6844,19 +7090,22 @@
         <v>300</v>
       </c>
       <c r="W100" s="3">
+        <v>300</v>
+      </c>
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6944,14 +7196,14 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6992,15 +7244,18 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>
